--- a/test-analysis/WebTestHackathon.xlsx
+++ b/test-analysis/WebTestHackathon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Prerequisite(s)</t>
   </si>
   <si>
+    <t>System must be connected to the network</t>
+  </si>
+  <si>
     <t>Test Step ID</t>
   </si>
   <si>
@@ -40,31 +43,151 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>When selecting to add a quantity of a specific item,and then adding another item without updating its quantity,the amount of money should be calculated automatically correctly</t>
+    <t>Click to Increase/Decrease Quantity</t>
+  </si>
+  <si>
+    <t>Quantity Increased/Decreased</t>
+  </si>
+  <si>
+    <t>Click to Increase/Decrease Quantity of Product</t>
+  </si>
+  <si>
+    <t>Click Add to Cart</t>
+  </si>
+  <si>
+    <t>Item Added in the Cart</t>
+  </si>
+  <si>
+    <t>Quantity of Items in Cart Increased</t>
+  </si>
+  <si>
+    <t>The amount of money is calculated correctly</t>
   </si>
   <si>
     <t>Complete Order</t>
   </si>
   <si>
+    <t>Get Error Message When Terms &amp; Conditions are not Sellected</t>
+  </si>
+  <si>
+    <t>Total cost updated accordingly</t>
+  </si>
+  <si>
+    <t>Click Cart</t>
+  </si>
+  <si>
+    <t>Cart Opens</t>
+  </si>
+  <si>
+    <t>Click Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Cart Page Opens</t>
+  </si>
+  <si>
+    <t>Click Place Order</t>
+  </si>
+  <si>
+    <t>Choose Country Page Opens</t>
+  </si>
+  <si>
+    <t>Choose Country</t>
+  </si>
+  <si>
+    <t>Country Chosen</t>
+  </si>
+  <si>
     <t>The order is correctly recorded, and a confirmation message is displayed</t>
   </si>
   <si>
+    <t>Click on Proceed</t>
+  </si>
+  <si>
+    <t>Message "Please accept Terms &amp; Conditions - Required"</t>
+  </si>
+  <si>
+    <t>Get Error Message When Country is not Sellected</t>
+  </si>
+  <si>
+    <t>Click to Check Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Checked Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Order Confirmed</t>
+  </si>
+  <si>
+    <t>A Message should appear but does not -     Defect ID 3</t>
+  </si>
+  <si>
+    <t>Top Deals</t>
+  </si>
+  <si>
+    <t>The list of the top deals is correctly displayed in the screen</t>
+  </si>
+  <si>
     <t>Search for Products</t>
   </si>
   <si>
     <t>The products selected are the ones displayed in the search results’ screen</t>
   </si>
   <si>
-    <t>Top Deals</t>
-  </si>
-  <si>
-    <t>The list of the top deals is correctly displayed in the screen</t>
+    <t>Click Top Deals</t>
+  </si>
+  <si>
+    <t>View the Top Deals</t>
+  </si>
+  <si>
+    <t>Choose Delivery Date</t>
+  </si>
+  <si>
+    <t>View the Deals for this Delivery Date</t>
+  </si>
+  <si>
+    <t>Write Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name Appears in Search Bar </t>
+  </si>
+  <si>
+    <t>Click on Search Button</t>
+  </si>
+  <si>
+    <t>Product Appears</t>
+  </si>
+  <si>
+    <t>Get Error Message When the Date has Passed</t>
+  </si>
+  <si>
+    <t>Get Error Message When the Product Name doesn't correspond to a Product</t>
+  </si>
+  <si>
+    <t>A message should appear that the date has passed but does not-   Defect ID 5</t>
+  </si>
+  <si>
+    <t>Message "Sorry, no products matched your search!"</t>
   </si>
   <si>
     <t>Use Promo Code</t>
   </si>
   <si>
-    <t>Inserting a promo code, the respective discount is automatically calculated</t>
+    <t>Inserting a promo code, the respective discount is automatically calculated. There is no correct code.</t>
+  </si>
+  <si>
+    <t>User is in the Cart Page</t>
+  </si>
+  <si>
+    <t>Enter Promo Code</t>
+  </si>
+  <si>
+    <t>Promo Code Appears in the Space</t>
+  </si>
+  <si>
+    <t>Click on Apply</t>
+  </si>
+  <si>
+    <t>Message "Invalid code ..!"</t>
   </si>
   <si>
     <t>Defect ID</t>
@@ -107,9 +230,6 @@
   </si>
   <si>
     <t>The order begins shipping when the user's country was not selected.</t>
-  </si>
-  <si>
-    <t>Amount of many calulated</t>
   </si>
   <si>
     <t>The amount of money is not calculated correctly when the user has changed the quantity of another item and then instantly trying to add to the cart a different one</t>
@@ -163,10 +283,6 @@
     </font>
     <font/>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -175,6 +291,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -272,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -299,21 +419,46 @@
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -322,7 +467,7 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -545,7 +690,8 @@
     <col customWidth="1" min="2" max="2" width="31.38"/>
     <col customWidth="1" min="3" max="4" width="28.38"/>
     <col customWidth="1" min="5" max="5" width="18.63"/>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col customWidth="1" min="8" max="8" width="32.0"/>
+    <col customWidth="1" min="10" max="10" width="36.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -564,8 +710,14 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3">
@@ -578,61 +730,102 @@
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="R6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="G7" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -643,14 +836,27 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -667,6 +873,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
@@ -675,6 +891,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
@@ -695,180 +921,385 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
+      <c r="G12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="H16" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="G18" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>4.0</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
+      <c r="G19" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
+      <c r="G20" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>11</v>
+      <c r="B21" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
+      <c r="G21" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="H27" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="14">
+        <v>6.0</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="G30" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
+      <c r="G31" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="G32" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
@@ -880,7 +1311,9 @@
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <v>9.0</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
     </row>
@@ -889,58 +1322,134 @@
         <v>1</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
+      <c r="G36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>15</v>
+      <c r="B37" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
+      <c r="G37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
+      <c r="G38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="B39" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="7"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4">
+        <v>10.0</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
     </row>
@@ -949,58 +1458,208 @@
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
+      <c r="G44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>17</v>
+      <c r="B45" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
+      <c r="G45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
+      <c r="G46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="B47" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="7"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="A49" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="17">
+      <c r="A65" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="26">
         <v>1.0</v>
       </c>
       <c r="C65" s="5"/>
@@ -1012,10 +1671,10 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -1028,7 +1687,7 @@
       <c r="A67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="12">
         <v>2.0</v>
       </c>
       <c r="C67" s="5"/>
@@ -1040,10 +1699,10 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1054,10 +1713,10 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -1068,10 +1727,10 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>26</v>
+        <v>66</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1096,10 +1755,10 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="17">
+      <c r="A73" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="26">
         <v>2.0</v>
       </c>
       <c r="C73" s="5"/>
@@ -1111,10 +1770,10 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -1127,7 +1786,7 @@
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="11"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -1137,10 +1796,10 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -1151,10 +1810,10 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -1165,9 +1824,9 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -1186,10 +1845,10 @@
       <c r="H80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="17">
+      <c r="A81" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="26">
         <v>3.0</v>
       </c>
       <c r="C81" s="5"/>
@@ -1201,10 +1860,10 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -1217,7 +1876,9 @@
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="12">
+        <v>3.0</v>
+      </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -1227,10 +1888,10 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -1241,10 +1902,10 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>31</v>
+        <v>64</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -1255,9 +1916,9 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="B86" s="20"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -1266,10 +1927,10 @@
       <c r="H86" s="10"/>
     </row>
     <row r="89">
-      <c r="A89" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="17">
+      <c r="A89" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="26">
         <v>4.0</v>
       </c>
       <c r="C89" s="5"/>
@@ -1281,10 +1942,10 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -1297,7 +1958,9 @@
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="11"/>
+      <c r="B91" s="12">
+        <v>2.0</v>
+      </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -1307,10 +1970,10 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -1321,10 +1984,10 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -1335,10 +1998,10 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -1348,10 +2011,10 @@
       <c r="H94" s="10"/>
     </row>
     <row r="97">
-      <c r="A97" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="17">
+      <c r="A97" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="26">
         <v>5.0</v>
       </c>
       <c r="C97" s="5"/>
@@ -1363,10 +2026,10 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -1379,7 +2042,9 @@
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="12">
+        <v>5.0</v>
+      </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -1389,10 +2054,10 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -1403,10 +2068,10 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -1417,9 +2082,9 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="B102" s="20"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -1428,10 +2093,10 @@
       <c r="H102" s="10"/>
     </row>
     <row r="105">
-      <c r="A105" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" s="17">
+      <c r="A105" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="26">
         <v>6.0</v>
       </c>
       <c r="C105" s="5"/>
@@ -1443,10 +2108,10 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -1459,7 +2124,7 @@
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="11"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -1469,10 +2134,10 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -1483,10 +2148,10 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -1497,9 +2162,9 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B110" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="B110" s="20"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -1508,80 +2173,95 @@
       <c r="H110" s="10"/>
     </row>
     <row r="114">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>43</v>
+      <c r="B114" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
     </row>
     <row r="116">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
     </row>
     <row r="117">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
     </row>
     <row r="118">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
     </row>
     <row r="119">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
     </row>
     <row r="120">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
     </row>
     <row r="121">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
     </row>
     <row r="122">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="80">
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="B97:H97"/>
     <mergeCell ref="B98:H98"/>
     <mergeCell ref="B89:H89"/>
@@ -1600,29 +2280,24 @@
     <mergeCell ref="B109:H109"/>
     <mergeCell ref="B110:H110"/>
     <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B74:H74"/>
     <mergeCell ref="B75:H75"/>
     <mergeCell ref="B66:H66"/>
@@ -1640,8 +2315,18 @@
     <mergeCell ref="B81:H81"/>
     <mergeCell ref="B82:H82"/>
     <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/test-analysis/WebTestHackathon.xlsx
+++ b/test-analysis/WebTestHackathon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="86">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -190,6 +190,12 @@
     <t>Message "Invalid code ..!"</t>
   </si>
   <si>
+    <t>Click Add to Cart on a different item without increasing its quantity</t>
+  </si>
+  <si>
+    <t>The price should be 1xprice of the item i added but its not - Defect ID 1</t>
+  </si>
+  <si>
     <t>Defect ID</t>
   </si>
   <si>
@@ -208,13 +214,13 @@
     <t>Defect detailed Description</t>
   </si>
   <si>
-    <t>The amount of money is not calculated correctly when the user has changed the quantity of another item and then trying to add to the cart a different one</t>
+    <t>The amount of money is not calculated correctly when the user has changed the quantity of a specific item and then trying to add to the cart a different one</t>
   </si>
   <si>
     <t>Complementary Information</t>
   </si>
   <si>
-    <t>The multiplier of the cost of an item seems to be the quantity of the item we changed before,without adding it to the cart</t>
+    <t>The multiplier of the cost of an added item seems to be the quantity of the item we last updated before,without adding it to the cart. Then, the multiplier truly resets</t>
   </si>
   <si>
     <t>Label name misspelling</t>
@@ -232,10 +238,10 @@
     <t>The order begins shipping when the user's country was not selected.</t>
   </si>
   <si>
-    <t>The amount of money is not calculated correctly when the user has changed the quantity of another item and then instantly trying to add to the cart a different one</t>
-  </si>
-  <si>
-    <t>The multiplier of the cost of an item seems to be the quantity of the item we changed before, for a specific time period,for a specific time period, without adding it to the cart</t>
+    <t>The amount of money is not calculated correctly when the user has changed the quantity of a specific item and then instantly trying to add to the cart a different one</t>
+  </si>
+  <si>
+    <t>The multiplier of the cost of an added item seems to be the quantity of the item we updated before,for a specific small time period, without adding it to the cart</t>
   </si>
   <si>
     <t xml:space="preserve">Delivery date in the past </t>
@@ -1588,6 +1594,14 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
+      <c r="G55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
@@ -1598,6 +1612,14 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
+      <c r="G56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
@@ -1608,6 +1630,14 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
+      <c r="G57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
@@ -1618,6 +1648,14 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
+      <c r="G58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
@@ -1630,6 +1668,16 @@
       <c r="D59" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="G59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="14">
@@ -1642,6 +1690,16 @@
       <c r="D60" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="G60" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="15"/>
+      <c r="J60" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="7">
@@ -1654,10 +1712,20 @@
       <c r="D61" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="G61" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B65" s="26">
         <v>1.0</v>
@@ -1671,10 +1739,10 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -1699,10 +1767,10 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1713,10 +1781,10 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -1727,10 +1795,10 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1756,7 +1824,7 @@
     </row>
     <row r="73">
       <c r="A73" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B73" s="26">
         <v>2.0</v>
@@ -1770,10 +1838,10 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -1796,10 +1864,10 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -1810,10 +1878,10 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -1824,7 +1892,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="9"/>
@@ -1846,7 +1914,7 @@
     </row>
     <row r="81">
       <c r="A81" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B81" s="26">
         <v>3.0</v>
@@ -1860,10 +1928,10 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -1888,10 +1956,10 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -1902,10 +1970,10 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -1916,7 +1984,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="9"/>
@@ -1928,7 +1996,7 @@
     </row>
     <row r="89">
       <c r="A89" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B89" s="26">
         <v>4.0</v>
@@ -1942,10 +2010,10 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -1970,10 +2038,10 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -1984,10 +2052,10 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -1998,10 +2066,10 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2012,7 +2080,7 @@
     </row>
     <row r="97">
       <c r="A97" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B97" s="26">
         <v>5.0</v>
@@ -2026,10 +2094,10 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -2054,10 +2122,10 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -2068,10 +2136,10 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -2082,7 +2150,7 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="9"/>
@@ -2094,7 +2162,7 @@
     </row>
     <row r="105">
       <c r="A105" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B105" s="26">
         <v>6.0</v>
@@ -2108,10 +2176,10 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -2134,10 +2202,10 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -2148,10 +2216,10 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -2162,7 +2230,7 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="9"/>
@@ -2177,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
@@ -2246,7 +2314,7 @@
       <c r="E122" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="84">
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H36:J36"/>
@@ -2322,11 +2390,15 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H55:J55"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
